--- a/stats_review/Econ_stats_summary.xlsx
+++ b/stats_review/Econ_stats_summary.xlsx
@@ -285,10 +285,10 @@
     <t>p</t>
   </si>
   <si>
-    <t>Probability of seeing observed t score given that H_0 is correct. Largest \alpha at which we FTR H_0. If small, accept H_0.</t>
-  </si>
-  <si>
     <t>Depends on form of H_a</t>
+  </si>
+  <si>
+    <t>Probability of seeing observed t score given that H_0 is correct. Largest \alpha at which we FTR H_0. If small, accept H_A.</t>
   </si>
 </sst>
 </file>
@@ -301,6 +301,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,7 +693,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1022,10 +1023,10 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
         <v>89</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
